--- a/data/trans_bre/P12A1_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-28,5</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,31</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,96</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,28</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-51,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-37,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-29,03%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>-2,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-28,88%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>72,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -7,38</t>
+          <t>-6,39; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 0,08</t>
+          <t>-4,72; 4,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 3,24</t>
+          <t>-7,56; 1,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 6,94</t>
+          <t>-2,07; 10,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-72,25; -15,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,31; 10,95</t>
+          <t>-60,04; 141,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 19,5</t>
+          <t>-48,81; 87,69</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-57,36; 16,25</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-26,87; 353,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>-8,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>-10,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-6,66%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 11,85</t>
+          <t>-4,11; 2,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 13,86</t>
+          <t>-3,92; 2,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 22,52</t>
+          <t>-3,85; 2,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 9,78</t>
+          <t>-0,91; 7,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 26,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 33,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 65,99</t>
+          <t>-47,66; 61,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 16,95</t>
+          <t>-45,04; 44,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-39,85; 43,84</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-12,37; 166,76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,79</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,29</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,92%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,87%</t>
+          <t>-26,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-30,98%</t>
+          <t>-16,88%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-25,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 21,82</t>
+          <t>-4,88; 1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 17,05</t>
+          <t>-4,21; 1,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 13,94</t>
+          <t>-2,22; 2,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 5,79</t>
+          <t>-5,73; 1,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 64,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 37,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 33,94</t>
+          <t>-68,64; 67,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 9,8</t>
+          <t>-55,17; 47,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,68; 90,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-62,57; 45,05</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,71</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,9</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,97%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
+          <t>-36,83%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-6,96%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,62; -1,81</t>
+          <t>-2,74; 3,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -0,1</t>
+          <t>-7,44; -0,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 6,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; -1,07</t>
+          <t>-4,36; 3,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,37; -4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,33; -0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 15,1</t>
+          <t>-33,39; 80,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -2,4</t>
+          <t>-63,31; 5,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-45,9; 66,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,44%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-18,67%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-10,96%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 1,47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 0,34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 1,09</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 3,18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-31,67; 26,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-39,17; 5,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-32,87; 18,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,43; 52,84</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12A1_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,96</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,14%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-2,19%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-28,88%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>72,98%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-1.63002535733426</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2611437827462218</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.167660961062334</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.869463300145781</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.1865489875549709</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.03643820364357968</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.3049229303256154</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6511039253475602</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,39; 5,63</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 4,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; 1,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 10,23</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-60,04; 141,75</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-48,81; 87,69</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-57,36; 16,25</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-26,87; 353,07</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.933646557644243</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.865263178276356</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.894939238002212</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.643613184254693</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6777406742510291</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5017584677164694</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.5852602432675748</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.306519108355106</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.278225879027696</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.07632527925257</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.844408691548428</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.685525708280364</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.9763080964369786</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8692506874293056</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1284682872885753</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.348553347709842</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-8,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,93%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-6,66%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>53,28%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 2,97</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 2,23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 2,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 7,39</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-47,66; 61,08</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-45,04; 44,11</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-39,85; 43,84</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-12,37; 166,76</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-0.341207252591004</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.5141296882376883</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.240999852971488</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.355227373580305</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.05270225393760639</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.0777628981091199</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.03322810670371029</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5259086471700267</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-26,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-16,88%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-25,78%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.60818774965205</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.493794371019338</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.43219799653864</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7936418305900929</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4495644140582724</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4368819166281103</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3741865061023081</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.10656183739275</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 1,85</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 1,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 2,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,73; 1,76</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-68,64; 67,0</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-55,17; 47,5</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-41,68; 90,07</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-62,57; 45,05</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.221650072730006</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.466477193489484</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.673996499890537</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.256516477185125</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.6803790229065945</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5062176958117043</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.4807906300301517</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.684892462824539</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,77%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-36,83%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-6,96%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.244724128267162</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.098341338745011</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1879236630624212</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.90891081651581</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.3795213513094673</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1896471519463796</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.04470463284932424</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2756011086857781</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 3,71</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; -0,04</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 3,79</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-33,39; 80,58</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-63,31; 5,08</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-45,9; 66,68</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.364894584142275</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.465663322220563</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.429783885214614</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.958693303253246</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7700302358106849</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5675780037841528</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4323982638404612</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6222929053382971</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.423702145442749</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.808107230380028</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.561150420724009</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.7517928675854</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.4394320349118667</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5050234995848151</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.868459891789555</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.4466426538791761</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-5,44%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-18,67%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-10,96%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,18%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 1,47</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 0,34</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 1,09</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 3,18</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-31,67; 26,89</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-39,17; 5,5</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-32,87; 18,93</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; 52,84</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.185240956409253</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.6401965633683914</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.7326419982578338</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.659405305969174</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.1784700175307371</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.0991451597130279</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1053757411723698</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2556287334423412</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.053487079042373</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.667151717021223</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.503982816996186</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.8170668352493254</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.4679384740188663</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.35212592134479</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3227130864714881</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1141115953326255</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.12470116092606</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.376048795915525</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.206802962265776</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.198321127403635</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.2121061739339364</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.257967898960067</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2065623039337437</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8180358311996289</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
